--- a/Plantilla_Carga_Especificaciones.xlsx
+++ b/Plantilla_Carga_Especificaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95952984af91a099/Documentos/MCS_ERP_FRONTEND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6ECA8-7CAE-4134-B0DA-0B350039059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EBE6ECA8-7CAE-4134-B0DA-0B350039059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C647D99-DA25-4EE0-ADA8-50244F7D2EFC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{11AED62C-B828-40EA-BE3D-3D7A9A8A443C}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,12 +93,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -132,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +149,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68028367-D916-4D33-B5AB-F271F38F3CC3}">
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,37 +523,30 @@
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
+      <c r="A76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
